--- a/IMPORTANT/PARADISE STATIONERY.xlsx
+++ b/IMPORTANT/PARADISE STATIONERY.xlsx
@@ -1077,7 +1077,7 @@
   <dimension ref="A1:I39"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1161,11 +1161,11 @@
       </c>
       <c r="H5" s="10">
         <f>B5:B34+C5-G36</f>
-        <v>10190</v>
+        <v>190</v>
       </c>
       <c r="I5" s="11">
         <f ca="1">TODAY()-A5</f>
-        <v>5</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
@@ -1173,15 +1173,19 @@
       <c r="B6" s="8"/>
       <c r="C6" s="50"/>
       <c r="D6" s="9"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="8"/>
+      <c r="F6" s="7">
+        <v>45134</v>
+      </c>
+      <c r="G6" s="8">
+        <v>10000</v>
+      </c>
       <c r="H6" s="10">
         <f>B6+H5+C6</f>
-        <v>10190</v>
+        <v>190</v>
       </c>
       <c r="I6" s="11">
         <f ca="1">TODAY()-A6</f>
-        <v>45112</v>
+        <v>45136</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
@@ -1193,11 +1197,11 @@
       <c r="G7" s="16"/>
       <c r="H7" s="10">
         <f>B7+H6+C7</f>
-        <v>10190</v>
+        <v>190</v>
       </c>
       <c r="I7" s="11">
         <f ca="1">TODAY()-A7</f>
-        <v>45112</v>
+        <v>45136</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1209,11 +1213,11 @@
       <c r="G8" s="16"/>
       <c r="H8" s="10">
         <f>H7+B8+C8</f>
-        <v>10190</v>
+        <v>190</v>
       </c>
       <c r="I8" s="11">
         <f ca="1">TODAY()-A8</f>
-        <v>45112</v>
+        <v>45136</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1225,11 +1229,11 @@
       <c r="G9" s="16"/>
       <c r="H9" s="10">
         <f t="shared" ref="H9:H34" si="0">B9+H8+C9</f>
-        <v>10190</v>
+        <v>190</v>
       </c>
       <c r="I9" s="11">
         <f t="shared" ref="I9:I33" ca="1" si="1">TODAY()-A9</f>
-        <v>45112</v>
+        <v>45136</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1241,11 +1245,11 @@
       <c r="G10" s="16"/>
       <c r="H10" s="10">
         <f t="shared" si="0"/>
-        <v>10190</v>
+        <v>190</v>
       </c>
       <c r="I10" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45112</v>
+        <v>45136</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1257,11 +1261,11 @@
       <c r="G11" s="16"/>
       <c r="H11" s="10">
         <f t="shared" si="0"/>
-        <v>10190</v>
+        <v>190</v>
       </c>
       <c r="I11" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45112</v>
+        <v>45136</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1273,11 +1277,11 @@
       <c r="G12" s="16"/>
       <c r="H12" s="10">
         <f t="shared" si="0"/>
-        <v>10190</v>
+        <v>190</v>
       </c>
       <c r="I12" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45112</v>
+        <v>45136</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="17.25" customHeight="1" thickTop="1" thickBot="1">
@@ -1289,11 +1293,11 @@
       <c r="G13" s="13"/>
       <c r="H13" s="10">
         <f t="shared" si="0"/>
-        <v>10190</v>
+        <v>190</v>
       </c>
       <c r="I13" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45112</v>
+        <v>45136</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1305,11 +1309,11 @@
       <c r="G14" s="16"/>
       <c r="H14" s="10">
         <f t="shared" si="0"/>
-        <v>10190</v>
+        <v>190</v>
       </c>
       <c r="I14" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45112</v>
+        <v>45136</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1321,11 +1325,11 @@
       <c r="G15" s="16"/>
       <c r="H15" s="20">
         <f t="shared" si="0"/>
-        <v>10190</v>
+        <v>190</v>
       </c>
       <c r="I15" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45112</v>
+        <v>45136</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1337,11 +1341,11 @@
       <c r="G16" s="16"/>
       <c r="H16" s="10">
         <f t="shared" si="0"/>
-        <v>10190</v>
+        <v>190</v>
       </c>
       <c r="I16" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45112</v>
+        <v>45136</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1353,11 +1357,11 @@
       <c r="G17" s="16"/>
       <c r="H17" s="10">
         <f t="shared" si="0"/>
-        <v>10190</v>
+        <v>190</v>
       </c>
       <c r="I17" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45112</v>
+        <v>45136</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1369,11 +1373,11 @@
       <c r="G18" s="16"/>
       <c r="H18" s="10">
         <f t="shared" si="0"/>
-        <v>10190</v>
+        <v>190</v>
       </c>
       <c r="I18" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45112</v>
+        <v>45136</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1385,11 +1389,11 @@
       <c r="G19" s="16"/>
       <c r="H19" s="10">
         <f t="shared" si="0"/>
-        <v>10190</v>
+        <v>190</v>
       </c>
       <c r="I19" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45112</v>
+        <v>45136</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1401,11 +1405,11 @@
       <c r="G20" s="16"/>
       <c r="H20" s="10">
         <f t="shared" si="0"/>
-        <v>10190</v>
+        <v>190</v>
       </c>
       <c r="I20" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45112</v>
+        <v>45136</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1417,11 +1421,11 @@
       <c r="G21" s="16"/>
       <c r="H21" s="10">
         <f t="shared" si="0"/>
-        <v>10190</v>
+        <v>190</v>
       </c>
       <c r="I21" s="11">
         <f ca="1">TODAY()-A21</f>
-        <v>45112</v>
+        <v>45136</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1433,11 +1437,11 @@
       <c r="G22" s="16"/>
       <c r="H22" s="10">
         <f t="shared" si="0"/>
-        <v>10190</v>
+        <v>190</v>
       </c>
       <c r="I22" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45112</v>
+        <v>45136</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1449,11 +1453,11 @@
       <c r="G23" s="16"/>
       <c r="H23" s="10">
         <f t="shared" si="0"/>
-        <v>10190</v>
+        <v>190</v>
       </c>
       <c r="I23" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45112</v>
+        <v>45136</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1465,11 +1469,11 @@
       <c r="G24" s="16"/>
       <c r="H24" s="10">
         <f t="shared" si="0"/>
-        <v>10190</v>
+        <v>190</v>
       </c>
       <c r="I24" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45112</v>
+        <v>45136</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1481,11 +1485,11 @@
       <c r="G25" s="16"/>
       <c r="H25" s="10">
         <f t="shared" si="0"/>
-        <v>10190</v>
+        <v>190</v>
       </c>
       <c r="I25" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45112</v>
+        <v>45136</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1497,11 +1501,11 @@
       <c r="G26" s="16"/>
       <c r="H26" s="10">
         <f t="shared" si="0"/>
-        <v>10190</v>
+        <v>190</v>
       </c>
       <c r="I26" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45112</v>
+        <v>45136</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1513,11 +1517,11 @@
       <c r="G27" s="16"/>
       <c r="H27" s="10">
         <f t="shared" si="0"/>
-        <v>10190</v>
+        <v>190</v>
       </c>
       <c r="I27" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45112</v>
+        <v>45136</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1529,11 +1533,11 @@
       <c r="G28" s="16"/>
       <c r="H28" s="10">
         <f t="shared" si="0"/>
-        <v>10190</v>
+        <v>190</v>
       </c>
       <c r="I28" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45112</v>
+        <v>45136</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1545,11 +1549,11 @@
       <c r="G29" s="16"/>
       <c r="H29" s="10">
         <f t="shared" si="0"/>
-        <v>10190</v>
+        <v>190</v>
       </c>
       <c r="I29" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45112</v>
+        <v>45136</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1561,11 +1565,11 @@
       <c r="G30" s="16"/>
       <c r="H30" s="10">
         <f t="shared" si="0"/>
-        <v>10190</v>
+        <v>190</v>
       </c>
       <c r="I30" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45112</v>
+        <v>45136</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1577,11 +1581,11 @@
       <c r="G31" s="16"/>
       <c r="H31" s="10">
         <f t="shared" si="0"/>
-        <v>10190</v>
+        <v>190</v>
       </c>
       <c r="I31" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45112</v>
+        <v>45136</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1593,11 +1597,11 @@
       <c r="G32" s="16"/>
       <c r="H32" s="10">
         <f t="shared" si="0"/>
-        <v>10190</v>
+        <v>190</v>
       </c>
       <c r="I32" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45112</v>
+        <v>45136</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1609,11 +1613,11 @@
       <c r="G33" s="16"/>
       <c r="H33" s="10">
         <f>B33+H32+C33</f>
-        <v>10190</v>
+        <v>190</v>
       </c>
       <c r="I33" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45112</v>
+        <v>45136</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1626,11 +1630,11 @@
       <c r="G34" s="22"/>
       <c r="H34" s="25">
         <f t="shared" si="0"/>
-        <v>10190</v>
+        <v>190</v>
       </c>
       <c r="I34" s="11">
         <f ca="1">TODAY()-A34</f>
-        <v>45112</v>
+        <v>45136</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="15.75" thickTop="1">
@@ -1659,7 +1663,7 @@
       <c r="F36" s="27"/>
       <c r="G36" s="29">
         <f>SUM(G5:G35)</f>
-        <v>12442</v>
+        <v>22442</v>
       </c>
       <c r="I36" s="37"/>
     </row>
@@ -1682,7 +1686,7 @@
       </c>
       <c r="E38" s="33">
         <f>B36-G36</f>
-        <v>10190</v>
+        <v>190</v>
       </c>
       <c r="F38" s="32"/>
       <c r="G38" s="32"/>
